--- a/src/test/resources/AllergieRecipeList.xlsx
+++ b/src/test/resources/AllergieRecipeList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>RecipeId</t>
   </si>
@@ -53,137 +53,231 @@
     <t>Allergies_ingerdient</t>
   </si>
   <si>
-    <t>Recipe# 7447
-19 Oct 23</t>
-  </si>
-  <si>
-    <t>Raw Papaya and Cabbage Stir-fry</t>
-  </si>
-  <si>
-    <t>Snack,Dinner</t>
+    <t>Recipe# 39681
+01 Sep 23</t>
+  </si>
+  <si>
+    <t>Baingan Methi ki Sabzi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>brinjal (baingan / eggplant) cubes,chopped fenugreek leaves (methi),chopped tomatoes,oil,mustard seeds ( rai / sarson),chopped onions,chopped garlic (lehsun),grated ginger (adrak),turmeric powder (haldi),salt,dried mango powder (amchur),lemon juice,whole dry kashmiri red chillies,coriander (dhania) seeds,urad dal (split black lentils),poppy seeds (khus-khus),sesame seeds (til)</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>Method
+For baingan methi ki sabzi
+To make baingan methi sabzi first prepare the roasted and ground masala powder
+Heat the oil in a non-stick kadhai and add the mustard seeds.
+When the seeds crackle, add the onions, garlic, ginger and sauté on medium heat for 2 minutes till onions are translucent.
+Add the brinjals, fenugreek leaves , tomatoes and cook on medium heat for 5 minutes.
+Add turmeric powder, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Add the prepared masala powder and dried mango powder, mix well and cook on a medium flame for another 1 to 2 minutes, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve baingan methi sabzi hot.</t>
+  </si>
+  <si>
+    <t>Energy 96 cal,Protein 4.3 g,Carbohydrates 10.4 g,Fiber 10.4 g,Fat 4.2 g,Cholesterol 0 mg,Sodium 17.1 mg</t>
+  </si>
+  <si>
+    <t>Diabetics</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com//baingan-methi-ki-sabzi-39681r</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>Recipe# 42781
+06 Jan 23</t>
+  </si>
+  <si>
+    <t>Eggless Date and Almond Cake, Indian Healthy Cake</t>
+  </si>
+  <si>
+    <t>jain</t>
+  </si>
+  <si>
+    <t>chopped dates (khajur),almonds (badam),whole wheat flour (gehun ka atta),quick cooking rolled oats,cinnamon (dalchini) powder,baking powder,cardamom (elaichi) powder,salt,soft butter,vanilla essence,almonds (badam),milk,almond (badam) slivers</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+For eggless date and almond cake
+To make eggless date and almond cake, combine the dates and ¼ cup of water in a small mixer jar and blend till smooth. Keep aside.
+Put the almonds in a small mixer jar and blend till smooth. Keep aside.
+Combine the whole wheat flour, oats, almond powder, cinnamon powder, baking powder, cardamom powder and salt and mix well. Keep aside.
+Put the butter in a deep bowl and using an electric beater, beat for 2 minutes.
+Add the dates puree and vanilla essence and beat again for 1 minute.
+Add the dry ingredients and almond milk and mix it well using a spatula.
+Transfer the mixture into a baking tray of 225 mm. X 125 mm. (9” x 5”) and tap it lightly.
+Sprinkle the almond slivers and press it lightly using your hands.
+Bake in a pre-heated oven at 180°c (360°f) for 25 minutes.
+Cool the date and almond cake with eggs slightly and demould the cake.
+Cut the eggless date and almond cake into 18 equal pieces and store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 132 cal,Protein 2.9 g,Carbohydrates 13.6 g,Fiber 2.5 g,Fat 7.8 g,Cholesterol 11.8 mg,Sodium 150.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com//eggless-date-and-almond-cake-indian-healthy-cake-42781r</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>Recipe# 39896
+19 Dec 22</t>
+  </si>
+  <si>
+    <t>Oats and Mixed Nuts Ladoo ( Healthy Laddu)</t>
+  </si>
+  <si>
+    <t>quick cooking rolled oats,chopped walnuts (akhrot),chopped almonds (badam),sesame seeds (til),ghee,chopped jaggery (gur),cardamom (elaichi) powder,low fat milk</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+For oats and mixed nuts ladoo
+To make oats and mixed nuts ladoo, heat a broad non-stick pan, add the oats and dry roast on a medium flame for 3 minutes. Remove and keep aside to cool completely.
+Heat the same broad non-stick pan, add the sesame seeds and dry roast them on a medium flame for 2 minutes. Keep aside to cool completely.
+Heat the ghee and jaggery in the same broad non-stick pan, mix well and cook on a slow flame for 1 minute, while stirring continuously.
+Transfer the jaggery mixture into a flat thali and allow it to cool slightly.
+Add the roasted oats, roasted sesame seeds, walnuts, almonds and cardamom powder and mix very well.
+Add the milk and mix very well.
+Divide the mixture into 8 equal portions and roll out each portion into a round ball.
+Serve the oats and mixed nuts ladoo immediately.</t>
+  </si>
+  <si>
+    <t>Energy 105 cal,Protein 2.9 g,Carbohydrates 11.8 g,Fiber 1.7 g,Fat 5.3 g,Cholesterol 0 mg,Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com//oats-and-mixed-nuts-ladoo--healthy-laddu-39896r</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>Recipe# 40603
+14 Dec 22</t>
+  </si>
+  <si>
+    <t>Baingan Bhaja, Bengali Begun Bhaja</t>
+  </si>
+  <si>
+    <t>brinjal (baingan / eggplant) slices,chilli powder,turmeric powder (haldi),lemon juice,besan (bengal gram flour),salt,oil</t>
+  </si>
+  <si>
+    <t>Method
+For baingan bhaja
+To make baingan bhaja, combine the chilli powder, turmeric powder, lemon juice, besan, salt and 2 tbsp of water in a deep bowl and mix well.
+Add the baingan slices and mix well. Keep aside.
+Heat a non-stick tava (griddle), grease it with ½ tsp of oil, arrange half the baingan slices and cook using ½ tsp of oil on both the sides till golden brown in colour.
+Repeat step 3 to make 1 more batch.
+Serve the baingan bhaja immediately.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal,Protein 1.5 g,Carbohydrates 4.6 g,Fiber 3 g,Fat 2.1 g,Cholesterol 0 mg,Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com//baingan-bhaja-bengali-begun-bhaja-40603r</t>
+  </si>
+  <si>
+    <t>Recipe# 3513
+15 Dec 22</t>
+  </si>
+  <si>
+    <t>Carrot Garlic Chutney ( Diabetic Recipe)</t>
   </si>
   <si>
     <t>vegan</t>
   </si>
   <si>
-    <t>grated raw papaya,shredded cabbage,oil,mustard seeds ( rai / sarson),asafoetida (hing),slit green chilli,sliced capsicum,turmeric powder (haldi),salt,lemon juice,chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>10 mins</t>
-  </si>
-  <si>
-    <t>3 mins</t>
-  </si>
-  <si>
-    <t>To make raw papaya and cabbage stir-fry, heat the oil in a broad non-stick pan and add the mustard seeds.
-When the seeds crackle, add the asafoetida and green chilli and sauté on a medium flame for a few seconds.
-Add the raw papaya, cabbage, capsicum, turmeric powder and salt and sauté on a high flame for 2 minutes.
-Add the lemon juice and mix well.
-Serve the raw papaya and cabbage stir-fry immediately garnished with coriander.</t>
-  </si>
-  <si>
-    <t>Energy 48 cal,Protein 1.2 g,Carbohydrates 5.8 g,Fiber 0.9 g,Fat 2.6 g,Cholesterol 0 mg,Sodium 5.4 mg</t>
-  </si>
-  <si>
-    <t>Diabetics</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/raw-papaya-and-cabbage-stir-fry-7447r</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>carrot,chopped garlic (lehsun),chilli powder,lemon juice,oil,salt</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Method
+Sprinkle ½ teaspoon of salt on the grated carrots and leave aside for 30 minutes. Drain out the juice.
+Grind the garlic, chilli powder, lemon juice and the remaining ½ teaspoon of salt along with ¼ cup of water to a fine paste in a blender or a mortar and pestle.
+Combine the carrots, garlic paste and oil in a bowl and mix well.
+Serve immediately.
+Tips
+The chutney will stay well if refrigerated for upto 4 days.</t>
+  </si>
+  <si>
+    <t>Energy 9 cal,Protein 0.1 g,Carbohydrates 1.2 g,Fiber 0.4 g,Fat 0.4 g,Cholesterol 0 mg,Sodium 197.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com//carrot-garlic-chutney--diabetic-recipe-3513r</t>
   </si>
   <si>
     <t>No Allergies</t>
   </si>
   <si>
-    <t>Recipe# 7445
-22 Sep 23</t>
-  </si>
-  <si>
-    <t>Minty Couscous</t>
-  </si>
-  <si>
-    <t>Breakfast</t>
-  </si>
-  <si>
-    <t>Veg</t>
-  </si>
-  <si>
-    <t>chopped mint leaves (phudina),couscous,low fat milk,chopped tomatoes,chopped spring onions,chopped coriander (dhania),olive oil,lemon juice,salt</t>
-  </si>
-  <si>
-    <t>4 mins</t>
-  </si>
-  <si>
-    <t>To make minty couscous, clean and wash the couscous thoroughly.
-Combine the couscous and milk in a deep non-stick pan, mix well and cook on a medium flame for 3 to 4 minutes or till it is tender. Keep aside to cool slightly.
-Combine all the ingredients, including the cooked couscous, in a deep bowl and mix gently.
-Refrigerate for at least half an hour.
-Serve the minty couscous chilled.</t>
-  </si>
-  <si>
-    <t>Energy 134 cal,Protein 5.1 g,Carbohydrates 21.8 g,Fiber 1.9 g,Fat 2.8 g,Cholesterol 0 mg,Sodium 31.1 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com//minty-couscous-7445r</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>Recipe# 42772
-04 Sep 23</t>
-  </si>
-  <si>
-    <t>Turmeric with Black Pepper for Anti-inflammation</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>turmeric powder (haldi),freshly ground black pepper (kalimirch),ghee</t>
-  </si>
-  <si>
-    <t>1 mins</t>
-  </si>
-  <si>
-    <t>0 mins</t>
-  </si>
-  <si>
-    <t>To make turmeric with black pepper for anti-inflammation, combine the turmeric powder, black pepper powder and ghee in a small plate and mix well.
-Serve the turmeric with black pepper for anti-inflammation immediately.</t>
-  </si>
-  <si>
-    <t>Energy 52 cal,Protein 0.4 g,Carbohydrates 1.3 g,Fiber 0.4 g,Fat 5.2 g,Cholesterol 0 mg,Sodium 0.7 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com//turmeric-with-black-pepper-for-anti-inflammation-42772r</t>
-  </si>
-  <si>
-    <t>Recipe# 42323
-06 Nov 23</t>
-  </si>
-  <si>
-    <t>How To Make Karela Juice, Bitter Gourd Juice for Diabetes</t>
-  </si>
-  <si>
-    <t>chopped bitter gourd (karela),lemon juice,salt</t>
-  </si>
-  <si>
-    <t>5 mins</t>
-  </si>
-  <si>
-    <t>To make karela juice, combine the karela and ½ cup of water in mixer and blend till smooth.
-Strain the mixture using ½ cup of water.
-Add the lemon juice and salt and mix well.
-Pour equal quantities of the karela juice into 2 small glasses and serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 15 cal,Protein 0.9 g,Carbohydrates 2.6 g,Fiber 2.5 g,Fat 0.1 g,Cholesterol 0 mg,Sodium 1.4 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com//how-to-make-karela-juice-bitter-gourd-juice-for-diabetes-42323r</t>
+    <t>Recipe# 39678
+09 Dec 22</t>
+  </si>
+  <si>
+    <t>Dudhi and Chana Dal Sabzi</t>
+  </si>
+  <si>
+    <t>Lunch,Dinner</t>
+  </si>
+  <si>
+    <t>bottle gourd (doodhi / lauki) cubes,chana dal (split bengal gram),salt,oil,mustard seeds ( rai / sarson),cumin seeds (jeera),asafoetida (hing),chopped tomatoes,chilli powder,turmeric powder (haldi),coriander-cumin seeds (dhania-jeera) powder,chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Method
+For dudhi and chana dal sabzi
+To make dudhi and chana dal sabzi, combine the bottle gourd, chana dal, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside
+Heat the oil in a deep non-stick kadhai and add the mustard seeds and cumin seeds.
+When the seeds crackle, add the asafoetida and sauté on a medium flame for a few seconds.
+Add the tomatoes, chilli powder, turmeric powder, coriander-cumin seeds powder, little salt and 1 tbsp of water and mash the tomatoes lightly using a potato masher. Mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the bottle gourd-chana dal mixture, mix well and cook on a medium flame for another 2 minutes, while stirring occasionally.
+Serve the dudhi and chana dal sabzi hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 117 cal,Protein 5.5 g,Carbohydrates 17.5 g,Fiber 5.6 g,Fat 2.8 g,Cholesterol 0 mg,Sodium 22.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com//dudhi-and-chana-dal-sabzi-39678r</t>
   </si>
 </sst>
 </file>
@@ -233,7 +327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -320,16 +414,19 @@
       <c r="M2" t="s" s="0">
         <v>25</v>
       </c>
+      <c r="N2" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>29</v>
@@ -338,48 +435,51 @@
         <v>30</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>22</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>24</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>41</v>
@@ -397,51 +497,142 @@
         <v>44</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>24</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
